--- a/BIODIESEL/Dados Biodiesel Vendas.xlsx
+++ b/BIODIESEL/Dados Biodiesel Vendas.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mês/Ano</t>
+          <t>Data</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,7 +478,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -498,7 +498,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -518,7 +518,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -538,7 +538,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -598,7 +598,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -618,7 +618,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -638,7 +638,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -658,7 +658,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -678,7 +678,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -698,7 +698,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>11/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -738,7 +738,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -758,7 +758,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -778,7 +778,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -798,7 +798,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -818,7 +818,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -858,7 +858,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -878,7 +878,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>10/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -898,7 +898,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>10/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -918,7 +918,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>10/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -938,7 +938,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>10/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -958,7 +958,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>10/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -978,7 +978,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>10/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -998,7 +998,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>10/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1018,7 +1018,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>09/2023</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>09/2023</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1058,7 +1058,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>09/2023</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1078,7 +1078,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>09/2023</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1098,7 +1098,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>09/2023</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1118,7 +1118,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>09/2023</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1138,7 +1138,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>09/2023</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1158,7 +1158,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>09/2023</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1178,7 +1178,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>09/2023</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1198,7 +1198,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>09/2023</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1218,7 +1218,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>09/2023</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1238,7 +1238,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>09/2023</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1258,7 +1258,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>09/2023</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1278,7 +1278,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>09/2023</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1298,7 +1298,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>09/2023</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1318,7 +1318,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>08/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1338,7 +1338,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>08/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1358,7 +1358,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>08/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1378,7 +1378,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>08/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1398,7 +1398,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>08/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1418,7 +1418,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>08/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1438,7 +1438,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>08/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1458,7 +1458,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>08/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1478,7 +1478,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>08/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1498,7 +1498,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>08/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1518,7 +1518,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>08/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1538,7 +1538,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>08/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1558,7 +1558,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>08/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1578,7 +1578,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>08/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1598,7 +1598,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>08/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1618,7 +1618,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>07/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1638,7 +1638,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>07/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1658,7 +1658,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>07/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1678,7 +1678,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>07/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1698,7 +1698,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>07/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1718,7 +1718,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>07/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1738,7 +1738,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>07/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1758,7 +1758,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>07/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1778,7 +1778,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>07/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1798,7 +1798,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>07/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1818,7 +1818,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>07/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1838,7 +1838,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>07/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1858,7 +1858,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>07/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1878,7 +1878,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>07/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1898,7 +1898,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>07/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1918,7 +1918,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1938,7 +1938,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1958,7 +1958,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1978,7 +1978,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1998,7 +1998,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2018,7 +2018,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2038,7 +2038,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2058,7 +2058,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2078,7 +2078,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2098,7 +2098,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2118,7 +2118,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2138,7 +2138,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2158,7 +2158,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2178,7 +2178,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2198,7 +2198,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2218,7 +2218,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2238,7 +2238,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2258,7 +2258,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>05/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2278,7 +2278,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>05/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2298,7 +2298,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>05/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2318,7 +2318,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>05/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2338,7 +2338,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>05/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2358,7 +2358,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>05/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2378,7 +2378,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>05/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2398,7 +2398,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>05/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2418,7 +2418,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>05/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2438,7 +2438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>05/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2458,7 +2458,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>05/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2478,7 +2478,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>05/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2498,7 +2498,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>05/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2518,7 +2518,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>05/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2538,7 +2538,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>05/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2558,7 +2558,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>04/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2578,7 +2578,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>04/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2598,7 +2598,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>04/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2618,7 +2618,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>04/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2638,7 +2638,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>04/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2658,7 +2658,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>04/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2678,7 +2678,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>04/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2698,7 +2698,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>04/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2718,7 +2718,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>04/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2738,7 +2738,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>04/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2758,7 +2758,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>04/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2778,7 +2778,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>04/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2798,7 +2798,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>04/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2818,7 +2818,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>03/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2838,7 +2838,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>03/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2858,7 +2858,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>03/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2878,7 +2878,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>03/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2898,7 +2898,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>03/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2918,7 +2918,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>03/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2938,7 +2938,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>03/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2958,7 +2958,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>03/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2978,7 +2978,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>03/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2998,7 +2998,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>03/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3018,7 +3018,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>03/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3038,7 +3038,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>03/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3058,7 +3058,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>03/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3078,7 +3078,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>03/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3098,7 +3098,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>03/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3118,7 +3118,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>03/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3138,7 +3138,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>03/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3158,7 +3158,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>02/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3178,7 +3178,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>02/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3198,7 +3198,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>02/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3218,7 +3218,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>02/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3238,7 +3238,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>02/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3258,7 +3258,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>02/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3278,7 +3278,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>02/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3298,7 +3298,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>02/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3318,7 +3318,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>02/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3338,7 +3338,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>02/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3358,7 +3358,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>02/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3378,7 +3378,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>02/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3398,7 +3398,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>02/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3418,7 +3418,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>01/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3438,7 +3438,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>01/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3458,7 +3458,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>01/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3478,7 +3478,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>01/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3498,7 +3498,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>01/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3518,7 +3518,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>01/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3538,7 +3538,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>01/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3558,7 +3558,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>01/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3578,7 +3578,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>01/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3598,7 +3598,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>01/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3618,7 +3618,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>01/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3638,7 +3638,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>01/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3658,7 +3658,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>01/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3678,7 +3678,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>01/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3698,7 +3698,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>01/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -3718,7 +3718,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>12/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -3738,7 +3738,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>12/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -3758,7 +3758,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>12/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -3778,7 +3778,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>12/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -3798,7 +3798,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>12/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -3818,7 +3818,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>12/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -3838,7 +3838,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>12/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -3858,7 +3858,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>12/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3878,7 +3878,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>12/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3898,7 +3898,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>12/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3918,7 +3918,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>12/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3938,7 +3938,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>12/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3958,7 +3958,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>12/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3978,7 +3978,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>12/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3998,7 +3998,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>11/2022</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4018,7 +4018,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>11/2022</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4038,7 +4038,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>11/2022</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4058,7 +4058,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>11/2022</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4078,7 +4078,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>11/2022</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4098,7 +4098,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>11/2022</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4118,7 +4118,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>11/2022</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4138,7 +4138,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>11/2022</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4158,7 +4158,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>11/2022</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4178,7 +4178,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>11/2022</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4198,7 +4198,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>11/2022</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4218,7 +4218,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>11/2022</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4238,7 +4238,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>11/2022</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4258,7 +4258,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>10/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4278,7 +4278,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>10/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4298,7 +4298,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>10/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4318,7 +4318,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>10/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4338,7 +4338,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>10/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4358,7 +4358,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>10/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4378,7 +4378,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>10/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4398,7 +4398,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>10/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4418,7 +4418,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>10/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4438,7 +4438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>10/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4458,7 +4458,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>10/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4478,7 +4478,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>10/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4498,7 +4498,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>10/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4518,7 +4518,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>10/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4538,7 +4538,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>10/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4558,7 +4558,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>10/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4578,7 +4578,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>09/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4598,7 +4598,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>09/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -4618,7 +4618,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>09/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -4638,7 +4638,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>09/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4658,7 +4658,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>09/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4678,7 +4678,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>09/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4698,7 +4698,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>09/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -4718,7 +4718,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>09/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4738,7 +4738,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>09/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4758,7 +4758,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>09/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4778,7 +4778,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>09/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4798,7 +4798,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>09/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -4818,7 +4818,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>09/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -4838,7 +4838,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>09/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -4858,7 +4858,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>09/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -4878,7 +4878,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>08/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -4898,7 +4898,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>08/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -4918,7 +4918,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>08/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -4938,7 +4938,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>08/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -4958,7 +4958,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>08/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -4978,7 +4978,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>08/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -4998,7 +4998,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>08/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5018,7 +5018,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>08/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5038,7 +5038,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>08/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -5058,7 +5058,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>08/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -5078,7 +5078,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>08/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5098,7 +5098,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>08/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5118,7 +5118,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>08/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -5138,7 +5138,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>08/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -5158,7 +5158,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>08/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -5178,7 +5178,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>07/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -5198,7 +5198,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>07/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -5218,7 +5218,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>07/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -5238,7 +5238,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>07/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5258,7 +5258,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>07/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5278,7 +5278,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>07/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -5298,7 +5298,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>07/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -5318,7 +5318,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>07/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -5338,7 +5338,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>07/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -5358,7 +5358,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>07/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -5378,7 +5378,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>07/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -5398,7 +5398,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>07/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -5418,7 +5418,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>07/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -5438,7 +5438,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>07/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -5458,7 +5458,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>07/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -5478,7 +5478,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>07/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -5498,7 +5498,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>07/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -5518,7 +5518,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>06/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -5538,7 +5538,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>06/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -5558,7 +5558,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>06/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -5578,7 +5578,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>06/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -5598,7 +5598,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>06/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -5618,7 +5618,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>06/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -5638,7 +5638,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>06/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -5658,7 +5658,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>06/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -5678,7 +5678,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>06/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -5698,7 +5698,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>06/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -5718,7 +5718,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>06/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -5738,7 +5738,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>06/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -5758,7 +5758,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>06/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -5778,7 +5778,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>06/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -5798,7 +5798,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>06/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -5818,7 +5818,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>06/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -5838,7 +5838,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>05/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -5858,7 +5858,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>05/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -5878,7 +5878,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>05/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -5898,7 +5898,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>05/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -5918,7 +5918,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>05/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -5938,7 +5938,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>05/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -5958,7 +5958,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>05/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -5978,7 +5978,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>05/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -5998,7 +5998,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>05/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -6018,7 +6018,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>05/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -6038,7 +6038,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>05/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -6058,7 +6058,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>05/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -6078,7 +6078,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>05/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -6098,7 +6098,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>05/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -6118,7 +6118,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>05/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -6138,7 +6138,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>05/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -6158,7 +6158,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>05/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -6178,7 +6178,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>05/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -6198,7 +6198,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>04/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -6218,7 +6218,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>04/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -6238,7 +6238,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>04/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -6258,7 +6258,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>04/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -6278,7 +6278,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>04/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -6298,7 +6298,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>04/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -6318,7 +6318,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>04/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -6338,7 +6338,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>04/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -6358,7 +6358,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>04/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -6378,7 +6378,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>04/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -6398,7 +6398,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>04/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -6418,7 +6418,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>04/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -6438,7 +6438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>04/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -6458,7 +6458,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>04/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -6478,7 +6478,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>04/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -6498,7 +6498,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>04/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -6518,7 +6518,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>04/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -6538,7 +6538,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>04/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -6558,7 +6558,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>03/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -6578,7 +6578,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>03/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -6598,7 +6598,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>03/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -6618,7 +6618,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>03/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -6638,7 +6638,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>03/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -6658,7 +6658,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>03/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -6678,7 +6678,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>03/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -6698,7 +6698,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>03/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -6718,7 +6718,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>03/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -6738,7 +6738,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>03/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -6758,7 +6758,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>03/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -6778,7 +6778,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>03/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -6798,7 +6798,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>03/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -6818,7 +6818,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>03/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -6838,7 +6838,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>02/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -6858,7 +6858,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>02/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -6878,7 +6878,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>02/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -6898,7 +6898,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>02/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -6918,7 +6918,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>02/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -6938,7 +6938,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>02/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -6958,7 +6958,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>02/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -6978,7 +6978,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>02/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -6998,7 +6998,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>02/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -7018,7 +7018,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>02/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -7038,7 +7038,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>02/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -7058,7 +7058,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>02/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -7078,7 +7078,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>02/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -7098,7 +7098,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>02/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -7118,7 +7118,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>01/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -7138,7 +7138,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>01/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -7158,7 +7158,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>01/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -7178,7 +7178,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>01/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -7198,7 +7198,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>01/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -7218,7 +7218,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>01/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -7238,7 +7238,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>01/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -7258,7 +7258,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>01/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -7278,7 +7278,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>01/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -7298,7 +7298,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>01/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -7318,7 +7318,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>01/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -7338,7 +7338,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>01/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -7358,7 +7358,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>01/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -7378,7 +7378,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>01/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -7398,7 +7398,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>01/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -7418,7 +7418,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>12/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -7438,7 +7438,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>12/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -7458,7 +7458,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>12/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -7478,7 +7478,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>12/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -7498,7 +7498,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>12/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -7518,7 +7518,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>12/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -7538,7 +7538,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>12/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -7558,7 +7558,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>12/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -7578,7 +7578,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>12/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -7598,7 +7598,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>12/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -7618,7 +7618,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>12/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -7638,7 +7638,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>12/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -7658,7 +7658,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>12/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -7678,7 +7678,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>11/2021</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -7698,7 +7698,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>11/2021</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -7718,7 +7718,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>11/2021</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -7738,7 +7738,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>11/2021</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -7758,7 +7758,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>11/2021</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -7778,7 +7778,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>11/2021</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -7798,7 +7798,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>11/2021</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -7818,7 +7818,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>11/2021</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -7838,7 +7838,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>11/2021</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -7858,7 +7858,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>11/2021</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -7878,7 +7878,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>11/2021</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -7898,7 +7898,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>11/2021</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -7918,7 +7918,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>10/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -7938,7 +7938,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>10/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -7958,7 +7958,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>10/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -7978,7 +7978,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>10/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -7998,7 +7998,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>10/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -8018,7 +8018,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>10/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -8038,7 +8038,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>10/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -8058,7 +8058,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>10/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -8078,7 +8078,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>10/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -8098,7 +8098,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>10/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -8118,7 +8118,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>10/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -8138,7 +8138,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>10/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -8158,7 +8158,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>10/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -8178,7 +8178,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>10/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -8198,7 +8198,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>09/2021</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -8218,7 +8218,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>09/2021</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -8238,7 +8238,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>09/2021</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -8258,7 +8258,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>09/2021</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -8278,7 +8278,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>09/2021</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -8298,7 +8298,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>09/2021</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -8318,7 +8318,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>09/2021</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -8338,7 +8338,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>09/2021</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -8358,7 +8358,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>09/2021</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -8378,7 +8378,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>09/2021</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -8398,7 +8398,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>09/2021</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -8418,7 +8418,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>09/2021</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -8438,7 +8438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>08/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -8458,7 +8458,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>08/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -8478,7 +8478,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>08/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -8498,7 +8498,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>08/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -8518,7 +8518,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>08/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -8538,7 +8538,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>08/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -8558,7 +8558,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>08/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -8578,7 +8578,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>08/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -8598,7 +8598,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>08/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -8618,7 +8618,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>08/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -8638,7 +8638,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>08/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -8658,7 +8658,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>08/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -8678,7 +8678,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>08/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -8698,7 +8698,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>07/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -8718,7 +8718,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>07/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -8738,7 +8738,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>07/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -8758,7 +8758,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>07/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -8778,7 +8778,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>07/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -8798,7 +8798,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>07/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -8818,7 +8818,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>07/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -8838,7 +8838,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>07/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -8858,7 +8858,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>07/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -8878,7 +8878,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>07/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -8898,7 +8898,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>07/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -8918,7 +8918,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>07/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -8938,7 +8938,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>07/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -8958,7 +8958,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>07/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -8978,7 +8978,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>06/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -8998,7 +8998,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>06/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -9018,7 +9018,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>06/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -9038,7 +9038,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>06/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -9058,7 +9058,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>06/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -9078,7 +9078,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>06/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -9098,7 +9098,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>06/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -9118,7 +9118,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>06/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -9138,7 +9138,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>06/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -9158,7 +9158,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>06/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -9178,7 +9178,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>06/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -9198,7 +9198,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>06/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -9218,7 +9218,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>06/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -9238,7 +9238,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>06/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -9258,7 +9258,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>05/2021</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -9278,7 +9278,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>05/2021</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -9298,7 +9298,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>05/2021</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -9318,7 +9318,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>05/2021</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -9338,7 +9338,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>05/2021</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -9358,7 +9358,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>05/2021</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -9378,7 +9378,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>05/2021</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -9398,7 +9398,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>05/2021</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -9418,7 +9418,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>05/2021</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -9438,7 +9438,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>05/2021</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -9458,7 +9458,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>05/2021</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -9478,7 +9478,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>05/2021</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -9498,7 +9498,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>04/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -9518,7 +9518,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>04/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -9538,7 +9538,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>04/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -9558,7 +9558,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>04/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -9578,7 +9578,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>04/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -9598,7 +9598,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>04/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -9618,7 +9618,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>04/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -9638,7 +9638,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>04/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -9658,7 +9658,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>04/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -9678,7 +9678,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>04/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -9698,7 +9698,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>04/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -9718,7 +9718,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>04/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -9738,7 +9738,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>04/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -9758,7 +9758,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>04/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -9778,7 +9778,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>04/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -9798,7 +9798,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>04/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -9818,7 +9818,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>03/2021</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -9838,7 +9838,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>03/2021</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -9858,7 +9858,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>03/2021</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -9878,7 +9878,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>03/2021</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -9898,7 +9898,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>03/2021</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -9918,7 +9918,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>03/2021</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -9938,7 +9938,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>03/2021</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -9958,7 +9958,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>03/2021</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -9978,7 +9978,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>03/2021</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -9998,7 +9998,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>03/2021</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -10018,7 +10018,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>03/2021</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -10038,7 +10038,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>03/2021</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -10058,7 +10058,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>03/2021</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -10078,7 +10078,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>02/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -10098,7 +10098,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>02/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -10118,7 +10118,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>02/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -10138,7 +10138,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>02/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -10158,7 +10158,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>02/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -10178,7 +10178,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>02/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -10198,7 +10198,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>02/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -10218,7 +10218,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>02/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -10238,7 +10238,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>02/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -10258,7 +10258,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>02/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -10278,7 +10278,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>02/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -10298,7 +10298,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>02/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -10318,7 +10318,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>02/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -10338,7 +10338,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>02/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -10358,7 +10358,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>01/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -10378,7 +10378,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>01/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -10398,7 +10398,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>01/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -10418,7 +10418,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>01/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -10438,7 +10438,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>01/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -10458,7 +10458,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>01/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -10478,7 +10478,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>01/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -10498,7 +10498,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>01/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -10518,7 +10518,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>01/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -10538,7 +10538,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>01/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -10558,7 +10558,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>01/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -10578,7 +10578,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>01/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -10598,7 +10598,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>01/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -10618,7 +10618,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>12/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -10638,7 +10638,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>12/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -10658,7 +10658,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>12/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -10678,7 +10678,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>12/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -10698,7 +10698,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>12/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -10718,7 +10718,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>12/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -10738,7 +10738,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>12/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -10758,7 +10758,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>12/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -10778,7 +10778,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>12/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -10798,7 +10798,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>12/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -10818,7 +10818,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>12/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -10838,7 +10838,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>12/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -10858,7 +10858,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>12/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -10878,7 +10878,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>12/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -10898,7 +10898,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>11/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -10918,7 +10918,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>11/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -10938,7 +10938,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>11/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -10958,7 +10958,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>11/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -10978,7 +10978,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>11/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -10998,7 +10998,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>11/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -11018,7 +11018,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>11/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -11038,7 +11038,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>11/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -11058,7 +11058,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>11/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -11078,7 +11078,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>11/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -11098,7 +11098,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>11/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -11118,7 +11118,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>11/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -11138,7 +11138,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>11/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -11158,7 +11158,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>11/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -11178,7 +11178,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>11/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -11198,7 +11198,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>10/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -11218,7 +11218,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>10/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -11238,7 +11238,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>10/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -11258,7 +11258,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>10/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -11278,7 +11278,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>10/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -11298,7 +11298,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>10/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -11318,7 +11318,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>10/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -11338,7 +11338,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>10/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -11358,7 +11358,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>10/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -11378,7 +11378,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>10/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -11398,7 +11398,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>10/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -11418,7 +11418,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>10/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -11438,7 +11438,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>10/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -11458,7 +11458,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>10/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -11478,7 +11478,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>10/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -11498,7 +11498,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>09/2020</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -11518,7 +11518,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>09/2020</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -11538,7 +11538,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>09/2020</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -11558,7 +11558,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>09/2020</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -11578,7 +11578,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>09/2020</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -11598,7 +11598,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>09/2020</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -11618,7 +11618,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>09/2020</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -11638,7 +11638,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>09/2020</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -11658,7 +11658,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>09/2020</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -11678,7 +11678,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>09/2020</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -11698,7 +11698,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>09/2020</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -11718,7 +11718,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>09/2020</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -11738,7 +11738,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>08/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -11758,7 +11758,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>08/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -11778,7 +11778,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>08/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -11798,7 +11798,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>08/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -11818,7 +11818,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>08/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -11838,7 +11838,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>08/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
@@ -11858,7 +11858,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>08/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -11878,7 +11878,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>08/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -11898,7 +11898,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>08/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -11918,7 +11918,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>08/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -11938,7 +11938,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>08/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -11958,7 +11958,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>08/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -11978,7 +11978,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>08/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -11998,7 +11998,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>08/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -12018,7 +12018,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>08/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -12038,7 +12038,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>08/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -12058,7 +12058,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>08/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -12078,7 +12078,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>07/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -12098,7 +12098,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>07/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -12118,7 +12118,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>07/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -12138,7 +12138,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>07/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -12158,7 +12158,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>07/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -12178,7 +12178,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>07/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -12198,7 +12198,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>07/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -12218,7 +12218,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>07/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -12238,7 +12238,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>07/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -12258,7 +12258,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>07/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -12278,7 +12278,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>07/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -12298,7 +12298,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>07/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -12318,7 +12318,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>07/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -12338,7 +12338,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>07/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -12358,7 +12358,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>07/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -12378,7 +12378,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>06/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -12398,7 +12398,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>06/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -12418,7 +12418,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>06/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -12438,7 +12438,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>06/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -12458,7 +12458,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>06/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -12478,7 +12478,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>06/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -12498,7 +12498,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>06/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -12518,7 +12518,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>06/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -12538,7 +12538,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>06/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -12558,7 +12558,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>06/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -12578,7 +12578,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>06/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
@@ -12598,7 +12598,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>06/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -12618,7 +12618,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>06/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -12638,7 +12638,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>06/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -12658,7 +12658,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>06/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -12678,7 +12678,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>06/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -12698,7 +12698,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>06/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -12718,7 +12718,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>05/2020</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -12738,7 +12738,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>05/2020</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -12758,7 +12758,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>05/2020</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -12778,7 +12778,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>05/2020</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
@@ -12798,7 +12798,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>05/2020</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -12818,7 +12818,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>05/2020</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -12838,7 +12838,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>05/2020</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -12858,7 +12858,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>05/2020</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -12878,7 +12878,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>05/2020</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -12898,7 +12898,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>05/2020</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -12918,7 +12918,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>05/2020</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -12938,7 +12938,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>04/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -12958,7 +12958,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>04/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -12978,7 +12978,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>04/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -12998,7 +12998,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>04/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -13018,7 +13018,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>04/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -13038,7 +13038,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>04/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -13058,7 +13058,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>04/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -13078,7 +13078,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>04/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -13098,7 +13098,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>04/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -13118,7 +13118,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>04/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -13138,7 +13138,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>04/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -13158,7 +13158,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>03/2020</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -13178,7 +13178,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>03/2020</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -13198,7 +13198,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>03/2020</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -13218,7 +13218,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>03/2020</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -13238,7 +13238,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>03/2020</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -13258,7 +13258,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>03/2020</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -13278,7 +13278,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>03/2020</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -13298,7 +13298,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>03/2020</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -13318,7 +13318,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>03/2020</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -13338,7 +13338,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>03/2020</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
@@ -13358,7 +13358,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>03/2020</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
@@ -13378,7 +13378,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>03/2020</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -13398,7 +13398,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>03/2020</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -13418,7 +13418,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>02/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -13438,7 +13438,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>02/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -13458,7 +13458,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>02/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -13478,7 +13478,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>02/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -13498,7 +13498,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>02/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -13518,7 +13518,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>02/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
@@ -13538,7 +13538,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>02/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -13558,7 +13558,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>02/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -13578,7 +13578,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>02/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -13598,7 +13598,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>02/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -13618,7 +13618,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>02/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -13638,7 +13638,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>02/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -13658,7 +13658,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>02/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -13678,7 +13678,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>02/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -13698,7 +13698,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>01/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -13718,7 +13718,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>01/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -13738,7 +13738,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>01/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -13758,7 +13758,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>01/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -13778,7 +13778,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>01/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -13798,7 +13798,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>01/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -13818,7 +13818,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>01/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -13838,7 +13838,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>01/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -13858,7 +13858,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>01/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -13878,7 +13878,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>01/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -13898,7 +13898,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>01/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -13918,7 +13918,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>12/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -13938,7 +13938,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>12/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -13958,7 +13958,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>12/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -13978,7 +13978,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>12/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -13998,7 +13998,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>12/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -14018,7 +14018,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>12/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -14038,7 +14038,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>12/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -14058,7 +14058,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>12/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -14078,7 +14078,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>12/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -14098,7 +14098,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>12/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -14118,7 +14118,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>12/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -14138,7 +14138,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>12/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -14158,7 +14158,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>12/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -14178,7 +14178,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>11/2019</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -14198,7 +14198,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>11/2019</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -14218,7 +14218,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>11/2019</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -14238,7 +14238,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>11/2019</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -14258,7 +14258,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>11/2019</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -14278,7 +14278,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>11/2019</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -14298,7 +14298,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>11/2019</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -14318,7 +14318,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>11/2019</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -14338,7 +14338,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>11/2019</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -14358,7 +14358,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>11/2019</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -14378,7 +14378,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>11/2019</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -14398,7 +14398,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>11/2019</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -14418,7 +14418,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>10/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -14438,7 +14438,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>10/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -14458,7 +14458,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>10/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -14478,7 +14478,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>10/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -14498,7 +14498,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>10/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -14518,7 +14518,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>10/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -14538,7 +14538,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>10/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -14558,7 +14558,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>10/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -14578,7 +14578,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>10/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -14598,7 +14598,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>10/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -14618,7 +14618,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>10/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -14638,7 +14638,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>10/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -14658,7 +14658,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>10/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -14678,7 +14678,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>10/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -14698,7 +14698,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>09/2019</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -14718,7 +14718,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>09/2019</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -14738,7 +14738,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>09/2019</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -14758,7 +14758,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>09/2019</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -14778,7 +14778,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>09/2019</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -14798,7 +14798,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>09/2019</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -14818,7 +14818,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>09/2019</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -14838,7 +14838,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>09/2019</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -14858,7 +14858,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>09/2019</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -14878,7 +14878,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>09/2019</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -14898,7 +14898,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>09/2019</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -14918,7 +14918,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>08/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -14938,7 +14938,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>08/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -14958,7 +14958,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>08/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -14978,7 +14978,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>08/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -14998,7 +14998,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>08/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -15018,7 +15018,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>08/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -15038,7 +15038,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>08/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -15058,7 +15058,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>08/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -15078,7 +15078,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>08/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -15098,7 +15098,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>08/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -15118,7 +15118,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>08/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -15138,7 +15138,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>08/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -15158,7 +15158,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>08/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -15178,7 +15178,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>08/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -15198,7 +15198,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>07/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -15218,7 +15218,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>07/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -15238,7 +15238,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>07/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -15258,7 +15258,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>07/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -15278,7 +15278,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>07/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -15298,7 +15298,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>07/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -15318,7 +15318,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>07/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -15338,7 +15338,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>07/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -15358,7 +15358,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>07/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -15378,7 +15378,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>07/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -15398,7 +15398,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>07/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -15418,7 +15418,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>06/2019</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -15438,7 +15438,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>06/2019</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -15458,7 +15458,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>06/2019</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -15478,7 +15478,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>06/2019</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -15498,7 +15498,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>06/2019</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -15518,7 +15518,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>06/2019</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -15538,7 +15538,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>06/2019</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -15558,7 +15558,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>06/2019</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -15578,7 +15578,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>06/2019</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -15598,7 +15598,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>06/2019</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -15618,7 +15618,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>06/2019</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -15638,7 +15638,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>05/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -15658,7 +15658,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>05/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -15678,7 +15678,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>05/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -15698,7 +15698,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>05/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -15718,7 +15718,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>05/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -15738,7 +15738,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>05/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -15758,7 +15758,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>05/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -15778,7 +15778,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>05/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -15798,7 +15798,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>05/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -15818,7 +15818,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>05/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -15838,7 +15838,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>05/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -15858,7 +15858,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>04/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -15878,7 +15878,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>04/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -15898,7 +15898,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>04/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -15918,7 +15918,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>04/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -15938,7 +15938,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>04/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -15958,7 +15958,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>04/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -15978,7 +15978,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>04/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -15998,7 +15998,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>04/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -16018,7 +16018,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>04/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -16038,7 +16038,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>03/2019</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -16058,7 +16058,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>03/2019</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -16078,7 +16078,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>03/2019</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -16098,7 +16098,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>03/2019</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -16118,7 +16118,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>03/2019</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -16138,7 +16138,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>03/2019</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -16158,7 +16158,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>03/2019</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -16178,7 +16178,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>03/2019</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -16198,7 +16198,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>03/2019</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -16218,7 +16218,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>03/2019</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -16238,7 +16238,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>03/2019</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -16258,7 +16258,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>02/2019</t>
+          <t>01/02/2019</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -16278,7 +16278,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>02/2019</t>
+          <t>01/02/2019</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -16298,7 +16298,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>02/2019</t>
+          <t>01/02/2019</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -16318,7 +16318,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>02/2019</t>
+          <t>01/02/2019</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -16338,7 +16338,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>02/2019</t>
+          <t>01/02/2019</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -16358,7 +16358,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>02/2019</t>
+          <t>01/02/2019</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -16378,7 +16378,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>02/2019</t>
+          <t>01/02/2019</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -16398,7 +16398,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>02/2019</t>
+          <t>01/02/2019</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -16418,7 +16418,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>02/2019</t>
+          <t>01/02/2019</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -16438,7 +16438,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>02/2019</t>
+          <t>01/02/2019</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -16458,7 +16458,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>01/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -16478,7 +16478,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>01/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -16498,7 +16498,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>01/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -16518,7 +16518,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>01/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -16538,7 +16538,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>01/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -16558,7 +16558,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>01/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -16578,7 +16578,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>01/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -16598,7 +16598,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>01/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -16618,7 +16618,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>01/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -16638,7 +16638,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>01/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -16658,7 +16658,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>01/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -16678,7 +16678,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>12/2018</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -16698,7 +16698,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>12/2018</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -16718,7 +16718,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>12/2018</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -16738,7 +16738,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>12/2018</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -16758,7 +16758,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>12/2018</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -16778,7 +16778,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>12/2018</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -16798,7 +16798,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>12/2018</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -16818,7 +16818,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>12/2018</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -16838,7 +16838,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>12/2018</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -16858,7 +16858,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>11/2018</t>
+          <t>01/11/2018</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -16878,7 +16878,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>11/2018</t>
+          <t>01/11/2018</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -16898,7 +16898,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>11/2018</t>
+          <t>01/11/2018</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -16918,7 +16918,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>11/2018</t>
+          <t>01/11/2018</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -16938,7 +16938,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>11/2018</t>
+          <t>01/11/2018</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -16958,7 +16958,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>11/2018</t>
+          <t>01/11/2018</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -16978,7 +16978,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>11/2018</t>
+          <t>01/11/2018</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -16998,7 +16998,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>11/2018</t>
+          <t>01/11/2018</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -17018,7 +17018,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>11/2018</t>
+          <t>01/11/2018</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -17038,7 +17038,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>11/2018</t>
+          <t>01/11/2018</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -17058,7 +17058,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>10/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -17078,7 +17078,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>10/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -17098,7 +17098,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>10/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -17118,7 +17118,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>10/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -17138,7 +17138,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>10/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -17158,7 +17158,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>10/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -17178,7 +17178,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>10/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -17198,7 +17198,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>10/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -17218,7 +17218,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>10/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -17238,7 +17238,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>10/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -17258,7 +17258,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>10/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -17278,7 +17278,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>10/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -17298,7 +17298,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>09/2018</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
@@ -17318,7 +17318,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>09/2018</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -17338,7 +17338,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>09/2018</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -17358,7 +17358,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>09/2018</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -17378,7 +17378,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>09/2018</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -17398,7 +17398,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>09/2018</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -17418,7 +17418,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>09/2018</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -17438,7 +17438,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>09/2018</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -17458,7 +17458,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>09/2018</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -17478,7 +17478,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>09/2018</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -17498,7 +17498,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>09/2018</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -17518,7 +17518,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>08/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -17538,7 +17538,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>08/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -17558,7 +17558,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>08/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -17578,7 +17578,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>08/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -17598,7 +17598,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>08/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -17618,7 +17618,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>08/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
@@ -17638,7 +17638,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>08/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -17658,7 +17658,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>08/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -17678,7 +17678,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>08/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
@@ -17698,7 +17698,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>08/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -17718,7 +17718,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>08/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
@@ -17738,7 +17738,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>08/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -17758,7 +17758,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>07/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -17778,7 +17778,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>07/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -17798,7 +17798,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>07/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -17818,7 +17818,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>07/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -17838,7 +17838,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>07/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -17858,7 +17858,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>07/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
@@ -17878,7 +17878,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>07/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
@@ -17898,7 +17898,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>07/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
@@ -17918,7 +17918,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>07/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
@@ -17938,7 +17938,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>07/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
@@ -17958,7 +17958,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>07/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
@@ -17978,7 +17978,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>07/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
@@ -17998,7 +17998,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>06/2018</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
@@ -18018,7 +18018,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>06/2018</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
@@ -18038,7 +18038,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>06/2018</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
@@ -18058,7 +18058,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>06/2018</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -18078,7 +18078,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>06/2018</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -18098,7 +18098,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>06/2018</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
@@ -18118,7 +18118,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>06/2018</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
@@ -18138,7 +18138,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>06/2018</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
@@ -18158,7 +18158,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>06/2018</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
@@ -18178,7 +18178,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>06/2018</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
@@ -18198,7 +18198,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>06/2018</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -18218,7 +18218,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>06/2018</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -18238,7 +18238,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>05/2018</t>
+          <t>01/05/2018</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -18258,7 +18258,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>05/2018</t>
+          <t>01/05/2018</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -18278,7 +18278,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>05/2018</t>
+          <t>01/05/2018</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -18298,7 +18298,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>05/2018</t>
+          <t>01/05/2018</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -18318,7 +18318,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>05/2018</t>
+          <t>01/05/2018</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -18338,7 +18338,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>05/2018</t>
+          <t>01/05/2018</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -18358,7 +18358,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>05/2018</t>
+          <t>01/05/2018</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -18378,7 +18378,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>05/2018</t>
+          <t>01/05/2018</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -18398,7 +18398,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>05/2018</t>
+          <t>01/05/2018</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -18418,7 +18418,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>05/2018</t>
+          <t>01/05/2018</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -18438,7 +18438,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>04/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -18458,7 +18458,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>04/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -18478,7 +18478,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>04/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -18498,7 +18498,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>04/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -18518,7 +18518,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>04/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -18538,7 +18538,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>04/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -18558,7 +18558,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>04/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -18578,7 +18578,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>04/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -18598,7 +18598,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>04/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -18618,7 +18618,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>04/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -18638,7 +18638,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>04/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -18658,7 +18658,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>04/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -18678,7 +18678,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>04/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -18698,7 +18698,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>03/2018</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -18718,7 +18718,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>03/2018</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -18738,7 +18738,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>03/2018</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -18758,7 +18758,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>03/2018</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -18778,7 +18778,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>03/2018</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -18798,7 +18798,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>03/2018</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -18818,7 +18818,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>03/2018</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -18838,7 +18838,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>03/2018</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -18858,7 +18858,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>03/2018</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -18878,7 +18878,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>03/2018</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -18898,7 +18898,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>03/2018</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -18918,7 +18918,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>02/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -18938,7 +18938,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>02/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -18958,7 +18958,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>02/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -18978,7 +18978,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>02/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -18998,7 +18998,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>02/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
@@ -19018,7 +19018,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>02/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -19038,7 +19038,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>02/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
@@ -19058,7 +19058,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>02/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
@@ -19078,7 +19078,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>02/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
@@ -19098,7 +19098,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>02/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -19118,7 +19118,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>02/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
@@ -19138,7 +19138,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>02/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
@@ -19158,7 +19158,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>02/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
@@ -19178,7 +19178,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>02/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
@@ -19198,7 +19198,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>01/2018</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
@@ -19218,7 +19218,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>01/2018</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
@@ -19238,7 +19238,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>01/2018</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
@@ -19258,7 +19258,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>01/2018</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
@@ -19278,7 +19278,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>01/2018</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
@@ -19298,7 +19298,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>01/2018</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
@@ -19318,7 +19318,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>01/2018</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
@@ -19338,7 +19338,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>01/2018</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
@@ -19358,7 +19358,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>01/2018</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
@@ -19378,7 +19378,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>01/2018</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
@@ -19398,7 +19398,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>12/2017</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
@@ -19418,7 +19418,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>12/2017</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
@@ -19438,7 +19438,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>12/2017</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
@@ -19458,7 +19458,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>12/2017</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
@@ -19478,7 +19478,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>12/2017</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
@@ -19498,7 +19498,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>12/2017</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
@@ -19518,7 +19518,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>12/2017</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
@@ -19538,7 +19538,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>12/2017</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
@@ -19558,7 +19558,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>12/2017</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
@@ -19578,7 +19578,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>12/2017</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
@@ -19598,7 +19598,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>11/2017</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
@@ -19618,7 +19618,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>11/2017</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
@@ -19638,7 +19638,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>11/2017</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
@@ -19658,7 +19658,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>11/2017</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
@@ -19678,7 +19678,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>11/2017</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
@@ -19698,7 +19698,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>11/2017</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
@@ -19718,7 +19718,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>11/2017</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
@@ -19738,7 +19738,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>11/2017</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
@@ -19758,7 +19758,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>11/2017</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
@@ -19778,7 +19778,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>11/2017</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
@@ -19798,7 +19798,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>11/2017</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
@@ -19818,7 +19818,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>11/2017</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
@@ -19838,7 +19838,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>11/2017</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
@@ -19858,7 +19858,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>10/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
@@ -19878,7 +19878,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>10/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
@@ -19898,7 +19898,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>10/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
@@ -19918,7 +19918,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>10/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
@@ -19938,7 +19938,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>10/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
@@ -19958,7 +19958,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>10/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
@@ -19978,7 +19978,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>10/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
@@ -19998,7 +19998,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>10/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
@@ -20018,7 +20018,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>10/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
@@ -20038,7 +20038,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>10/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -20058,7 +20058,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>10/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
@@ -20078,7 +20078,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>10/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
@@ -20098,7 +20098,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>10/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
@@ -20118,7 +20118,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>09/2017</t>
+          <t>01/09/2017</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
@@ -20138,7 +20138,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>09/2017</t>
+          <t>01/09/2017</t>
         </is>
       </c>
       <c r="B986" t="inlineStr">
@@ -20158,7 +20158,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>09/2017</t>
+          <t>01/09/2017</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
@@ -20178,7 +20178,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>09/2017</t>
+          <t>01/09/2017</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
@@ -20198,7 +20198,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>09/2017</t>
+          <t>01/09/2017</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
@@ -20218,7 +20218,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>09/2017</t>
+          <t>01/09/2017</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
@@ -20238,7 +20238,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>09/2017</t>
+          <t>01/09/2017</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
@@ -20258,7 +20258,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>09/2017</t>
+          <t>01/09/2017</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
@@ -20278,7 +20278,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>09/2017</t>
+          <t>01/09/2017</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
@@ -20298,7 +20298,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>09/2017</t>
+          <t>01/09/2017</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
@@ -20318,7 +20318,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>08/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
@@ -20338,7 +20338,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>08/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
@@ -20358,7 +20358,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>08/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
@@ -20378,7 +20378,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>08/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B998" t="inlineStr">
@@ -20398,7 +20398,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>08/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B999" t="inlineStr">
@@ -20418,7 +20418,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>08/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr">
@@ -20438,7 +20438,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>08/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr">
@@ -20458,7 +20458,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>08/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr">
@@ -20478,7 +20478,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>08/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr">
@@ -20498,7 +20498,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>08/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr">
@@ -20518,7 +20518,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>08/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr">
@@ -20538,7 +20538,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>08/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr">
@@ -20558,7 +20558,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>07/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr">
@@ -20578,7 +20578,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>07/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr">
@@ -20598,7 +20598,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>07/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr">
@@ -20618,7 +20618,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>07/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr">
@@ -20638,7 +20638,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>07/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr">
@@ -20658,7 +20658,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>07/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr">
@@ -20678,7 +20678,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>07/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr">
@@ -20698,7 +20698,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>07/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr">
@@ -20718,7 +20718,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>07/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr">
@@ -20738,7 +20738,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>07/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr">
@@ -20758,7 +20758,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>07/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr">
@@ -20778,7 +20778,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>07/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr">
@@ -20798,7 +20798,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>07/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr">
@@ -20818,7 +20818,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>06/2017</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr">
@@ -20838,7 +20838,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>06/2017</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr">
@@ -20858,7 +20858,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>06/2017</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr">
@@ -20878,7 +20878,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>06/2017</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr">
@@ -20898,7 +20898,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>06/2017</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr">
@@ -20918,7 +20918,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>06/2017</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr">
@@ -20938,7 +20938,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>06/2017</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr">
@@ -20958,7 +20958,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>06/2017</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr">
@@ -20978,7 +20978,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>06/2017</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr">
@@ -20998,7 +20998,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>06/2017</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr">
@@ -21018,7 +21018,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>06/2017</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr">
@@ -21038,7 +21038,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>06/2017</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr">
@@ -21058,7 +21058,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>05/2017</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr">
@@ -21078,7 +21078,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>05/2017</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr">
@@ -21098,7 +21098,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>05/2017</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr">
@@ -21118,7 +21118,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>05/2017</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr">
@@ -21138,7 +21138,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>05/2017</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr">
@@ -21158,7 +21158,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>05/2017</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr">
@@ -21178,7 +21178,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>05/2017</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr">
@@ -21198,7 +21198,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>05/2017</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr">
@@ -21218,7 +21218,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>05/2017</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr">
@@ -21238,7 +21238,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>05/2017</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr">
@@ -21258,7 +21258,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>04/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr">
@@ -21278,7 +21278,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>04/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr">
@@ -21298,7 +21298,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>04/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr">
@@ -21318,7 +21318,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>04/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr">
@@ -21338,7 +21338,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>04/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr">
@@ -21358,7 +21358,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>04/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr">
@@ -21378,7 +21378,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>04/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr">
@@ -21398,7 +21398,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>04/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr">
@@ -21418,7 +21418,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>04/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr">
@@ -21438,7 +21438,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>04/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr">
@@ -21458,7 +21458,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>04/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr">
@@ -21478,7 +21478,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>03/2017</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr">
@@ -21498,7 +21498,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>03/2017</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr">
@@ -21518,7 +21518,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>03/2017</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr">
@@ -21538,7 +21538,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>03/2017</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr">
@@ -21558,7 +21558,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>03/2017</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr">
@@ -21578,7 +21578,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>03/2017</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr">
@@ -21598,7 +21598,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>03/2017</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr">
@@ -21618,7 +21618,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>03/2017</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr">
@@ -21638,7 +21638,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>03/2017</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr">
@@ -21658,7 +21658,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>03/2017</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr">
@@ -21678,7 +21678,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>03/2017</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr">
@@ -21698,7 +21698,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>02/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr">
@@ -21718,7 +21718,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>02/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr">
@@ -21738,7 +21738,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>02/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr">
@@ -21758,7 +21758,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>02/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr">
@@ -21778,7 +21778,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>02/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr">
@@ -21798,7 +21798,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>02/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr">
@@ -21818,7 +21818,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>02/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr">
@@ -21838,7 +21838,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>02/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr">
@@ -21858,7 +21858,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>02/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr">
@@ -21878,7 +21878,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>02/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr">
@@ -21898,7 +21898,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>02/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr">
@@ -21918,7 +21918,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>02/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr">
@@ -21938,7 +21938,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>02/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr">
@@ -21958,7 +21958,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>02/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr">
@@ -21978,7 +21978,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>01/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr">
@@ -21998,7 +21998,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>01/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr">
@@ -22018,7 +22018,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>01/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr">
@@ -22038,7 +22038,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>01/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr">
@@ -22058,7 +22058,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>01/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr">
@@ -22078,7 +22078,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>01/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr">
@@ -22098,7 +22098,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>01/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr">
@@ -22118,7 +22118,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>01/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr">
@@ -22138,7 +22138,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>01/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr">
@@ -22158,7 +22158,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>01/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr">
@@ -22178,7 +22178,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>01/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr">
@@ -22198,7 +22198,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>01/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr">
@@ -22218,7 +22218,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>01/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr">
@@ -22238,7 +22238,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>01/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr">

--- a/BIODIESEL/Dados Biodiesel Vendas.xlsx
+++ b/BIODIESEL/Dados Biodiesel Vendas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1395"/>
+  <dimension ref="A1:D1557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>15.902</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>35057.87</v>
+        <v>35063.772</v>
       </c>
     </row>
     <row r="233">
@@ -20592,7 +20592,7 @@
         </is>
       </c>
       <c r="D1008" t="n">
-        <v>109454.247</v>
+        <v>109459.327</v>
       </c>
     </row>
     <row r="1009">
@@ -21672,7 +21672,7 @@
         </is>
       </c>
       <c r="D1062" t="n">
-        <v>96899.67600000001</v>
+        <v>96897.67600000001</v>
       </c>
     </row>
     <row r="1063">
@@ -22032,7 +22032,7 @@
         </is>
       </c>
       <c r="D1080" t="n">
-        <v>94202.726</v>
+        <v>94200.726</v>
       </c>
     </row>
     <row r="1081">
@@ -23312,7 +23312,7 @@
         </is>
       </c>
       <c r="D1144" t="n">
-        <v>73105.81299999999</v>
+        <v>73115.81299999999</v>
       </c>
     </row>
     <row r="1145">
@@ -23672,7 +23672,7 @@
         </is>
       </c>
       <c r="D1162" t="n">
-        <v>100721.939</v>
+        <v>100721.579</v>
       </c>
     </row>
     <row r="1163">
@@ -24232,7 +24232,7 @@
         </is>
       </c>
       <c r="D1190" t="n">
-        <v>268.486</v>
+        <v>180.913</v>
       </c>
     </row>
     <row r="1191">
@@ -24372,7 +24372,7 @@
         </is>
       </c>
       <c r="D1197" t="n">
-        <v>131080.121</v>
+        <v>131167.694</v>
       </c>
     </row>
     <row r="1198">
@@ -26072,7 +26072,7 @@
         </is>
       </c>
       <c r="D1282" t="n">
-        <v>127025.574</v>
+        <v>127028.574</v>
       </c>
     </row>
     <row r="1283">
@@ -27732,7 +27732,7 @@
         </is>
       </c>
       <c r="D1365" t="n">
-        <v>103799.973</v>
+        <v>106516.109</v>
       </c>
     </row>
     <row r="1366">
@@ -27763,7 +27763,7 @@
       </c>
       <c r="B1367" t="inlineStr">
         <is>
-          <t>SUL</t>
+          <t>CENTRO OESTE</t>
         </is>
       </c>
       <c r="C1367" t="inlineStr">
@@ -27772,7 +27772,7 @@
         </is>
       </c>
       <c r="D1367" t="n">
-        <v>2.42</v>
+        <v>9.925000000000001</v>
       </c>
     </row>
     <row r="1368">
@@ -27783,16 +27783,16 @@
       </c>
       <c r="B1368" t="inlineStr">
         <is>
-          <t>CENTRO OESTE</t>
+          <t>SUL</t>
         </is>
       </c>
       <c r="C1368" t="inlineStr">
         <is>
-          <t>NORDESTE</t>
+          <t>NÃO INFORMADA</t>
         </is>
       </c>
       <c r="D1368" t="n">
-        <v>44173.073</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="1369">
@@ -27803,7 +27803,7 @@
       </c>
       <c r="B1369" t="inlineStr">
         <is>
-          <t>NORDESTE</t>
+          <t>CENTRO OESTE</t>
         </is>
       </c>
       <c r="C1369" t="inlineStr">
@@ -27812,7 +27812,7 @@
         </is>
       </c>
       <c r="D1369" t="n">
-        <v>58669.248</v>
+        <v>46112.585</v>
       </c>
     </row>
     <row r="1370">
@@ -27823,7 +27823,7 @@
       </c>
       <c r="B1370" t="inlineStr">
         <is>
-          <t>NORTE</t>
+          <t>NORDESTE</t>
         </is>
       </c>
       <c r="C1370" t="inlineStr">
@@ -27832,7 +27832,7 @@
         </is>
       </c>
       <c r="D1370" t="n">
-        <v>14055.53</v>
+        <v>58669.248</v>
       </c>
     </row>
     <row r="1371">
@@ -27843,7 +27843,7 @@
       </c>
       <c r="B1371" t="inlineStr">
         <is>
-          <t>SUDESTE</t>
+          <t>NORTE</t>
         </is>
       </c>
       <c r="C1371" t="inlineStr">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="D1371" t="n">
-        <v>2618.987</v>
+        <v>14055.53</v>
       </c>
     </row>
     <row r="1372">
@@ -27863,16 +27863,16 @@
       </c>
       <c r="B1372" t="inlineStr">
         <is>
-          <t>CENTRO OESTE</t>
+          <t>SUDESTE</t>
         </is>
       </c>
       <c r="C1372" t="inlineStr">
         <is>
-          <t>NORTE</t>
+          <t>NORDESTE</t>
         </is>
       </c>
       <c r="D1372" t="n">
-        <v>43656.807</v>
+        <v>2618.987</v>
       </c>
     </row>
     <row r="1373">
@@ -27883,7 +27883,7 @@
       </c>
       <c r="B1373" t="inlineStr">
         <is>
-          <t>NORDESTE</t>
+          <t>CENTRO OESTE</t>
         </is>
       </c>
       <c r="C1373" t="inlineStr">
@@ -27892,7 +27892,7 @@
         </is>
       </c>
       <c r="D1373" t="n">
-        <v>333.016</v>
+        <v>45249.309</v>
       </c>
     </row>
     <row r="1374">
@@ -27903,7 +27903,7 @@
       </c>
       <c r="B1374" t="inlineStr">
         <is>
-          <t>NORTE</t>
+          <t>NORDESTE</t>
         </is>
       </c>
       <c r="C1374" t="inlineStr">
@@ -27912,7 +27912,7 @@
         </is>
       </c>
       <c r="D1374" t="n">
-        <v>22066.946</v>
+        <v>333.016</v>
       </c>
     </row>
     <row r="1375">
@@ -27923,16 +27923,16 @@
       </c>
       <c r="B1375" t="inlineStr">
         <is>
-          <t>CENTRO OESTE</t>
+          <t>NORTE</t>
         </is>
       </c>
       <c r="C1375" t="inlineStr">
         <is>
-          <t>SUDESTE</t>
+          <t>NORTE</t>
         </is>
       </c>
       <c r="D1375" t="n">
-        <v>115115.769</v>
+        <v>22066.946</v>
       </c>
     </row>
     <row r="1376">
@@ -27943,7 +27943,7 @@
       </c>
       <c r="B1376" t="inlineStr">
         <is>
-          <t>SUDESTE</t>
+          <t>CENTRO OESTE</t>
         </is>
       </c>
       <c r="C1376" t="inlineStr">
@@ -27952,7 +27952,7 @@
         </is>
       </c>
       <c r="D1376" t="n">
-        <v>47018.46</v>
+        <v>118723.557</v>
       </c>
     </row>
     <row r="1377">
@@ -27963,7 +27963,7 @@
       </c>
       <c r="B1377" t="inlineStr">
         <is>
-          <t>SUL</t>
+          <t>SUDESTE</t>
         </is>
       </c>
       <c r="C1377" t="inlineStr">
@@ -27972,7 +27972,7 @@
         </is>
       </c>
       <c r="D1377" t="n">
-        <v>141209.984</v>
+        <v>47018.46</v>
       </c>
     </row>
     <row r="1378">
@@ -27983,16 +27983,16 @@
       </c>
       <c r="B1378" t="inlineStr">
         <is>
-          <t>CENTRO OESTE</t>
+          <t>SUL</t>
         </is>
       </c>
       <c r="C1378" t="inlineStr">
         <is>
-          <t>SUL</t>
+          <t>SUDESTE</t>
         </is>
       </c>
       <c r="D1378" t="n">
-        <v>1962.619</v>
+        <v>141209.984</v>
       </c>
     </row>
     <row r="1379">
@@ -28003,7 +28003,7 @@
       </c>
       <c r="B1379" t="inlineStr">
         <is>
-          <t>SUL</t>
+          <t>CENTRO OESTE</t>
         </is>
       </c>
       <c r="C1379" t="inlineStr">
@@ -28012,27 +28012,27 @@
         </is>
       </c>
       <c r="D1379" t="n">
-        <v>194092.717</v>
+        <v>1962.619</v>
       </c>
     </row>
     <row r="1380">
       <c r="A1380" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="B1380" t="inlineStr">
         <is>
-          <t>CENTRO OESTE</t>
+          <t>SUL</t>
         </is>
       </c>
       <c r="C1380" t="inlineStr">
         <is>
-          <t>CENTRO OESTE</t>
+          <t>SUL</t>
         </is>
       </c>
       <c r="D1380" t="n">
-        <v>99673.683</v>
+        <v>194092.717</v>
       </c>
     </row>
     <row r="1381">
@@ -28043,7 +28043,7 @@
       </c>
       <c r="B1381" t="inlineStr">
         <is>
-          <t>SUDESTE</t>
+          <t>CENTRO OESTE</t>
         </is>
       </c>
       <c r="C1381" t="inlineStr">
@@ -28052,7 +28052,7 @@
         </is>
       </c>
       <c r="D1381" t="n">
-        <v>34.711</v>
+        <v>102892.087</v>
       </c>
     </row>
     <row r="1382">
@@ -28063,7 +28063,7 @@
       </c>
       <c r="B1382" t="inlineStr">
         <is>
-          <t>SUL</t>
+          <t>SUDESTE</t>
         </is>
       </c>
       <c r="C1382" t="inlineStr">
@@ -28072,7 +28072,7 @@
         </is>
       </c>
       <c r="D1382" t="n">
-        <v>897.176</v>
+        <v>34.711</v>
       </c>
     </row>
     <row r="1383">
@@ -28088,11 +28088,11 @@
       </c>
       <c r="C1383" t="inlineStr">
         <is>
-          <t>NÃO INFORMADA</t>
+          <t>CENTRO OESTE</t>
         </is>
       </c>
       <c r="D1383" t="n">
-        <v>2.281</v>
+        <v>748.462</v>
       </c>
     </row>
     <row r="1384">
@@ -28103,16 +28103,16 @@
       </c>
       <c r="B1384" t="inlineStr">
         <is>
-          <t>CENTRO OESTE</t>
+          <t>SUL</t>
         </is>
       </c>
       <c r="C1384" t="inlineStr">
         <is>
-          <t>NORDESTE</t>
+          <t>NÃO INFORMADA</t>
         </is>
       </c>
       <c r="D1384" t="n">
-        <v>39765.303</v>
+        <v>2.281</v>
       </c>
     </row>
     <row r="1385">
@@ -28123,7 +28123,7 @@
       </c>
       <c r="B1385" t="inlineStr">
         <is>
-          <t>NORDESTE</t>
+          <t>CENTRO OESTE</t>
         </is>
       </c>
       <c r="C1385" t="inlineStr">
@@ -28132,7 +28132,7 @@
         </is>
       </c>
       <c r="D1385" t="n">
-        <v>54074.324</v>
+        <v>39943.857</v>
       </c>
     </row>
     <row r="1386">
@@ -28143,7 +28143,7 @@
       </c>
       <c r="B1386" t="inlineStr">
         <is>
-          <t>NORTE</t>
+          <t>NORDESTE</t>
         </is>
       </c>
       <c r="C1386" t="inlineStr">
@@ -28152,7 +28152,7 @@
         </is>
       </c>
       <c r="D1386" t="n">
-        <v>14726.338</v>
+        <v>59798.003</v>
       </c>
     </row>
     <row r="1387">
@@ -28163,16 +28163,16 @@
       </c>
       <c r="B1387" t="inlineStr">
         <is>
-          <t>CENTRO OESTE</t>
+          <t>NORTE</t>
         </is>
       </c>
       <c r="C1387" t="inlineStr">
         <is>
-          <t>NORTE</t>
+          <t>NORDESTE</t>
         </is>
       </c>
       <c r="D1387" t="n">
-        <v>43940.957</v>
+        <v>14838.283</v>
       </c>
     </row>
     <row r="1388">
@@ -28183,16 +28183,16 @@
       </c>
       <c r="B1388" t="inlineStr">
         <is>
-          <t>NORDESTE</t>
+          <t>SUDESTE</t>
         </is>
       </c>
       <c r="C1388" t="inlineStr">
         <is>
-          <t>NORTE</t>
+          <t>NORDESTE</t>
         </is>
       </c>
       <c r="D1388" t="n">
-        <v>1963.574</v>
+        <v>3091.144</v>
       </c>
     </row>
     <row r="1389">
@@ -28203,7 +28203,7 @@
       </c>
       <c r="B1389" t="inlineStr">
         <is>
-          <t>NORTE</t>
+          <t>CENTRO OESTE</t>
         </is>
       </c>
       <c r="C1389" t="inlineStr">
@@ -28212,7 +28212,7 @@
         </is>
       </c>
       <c r="D1389" t="n">
-        <v>21582.646</v>
+        <v>44288.671</v>
       </c>
     </row>
     <row r="1390">
@@ -28223,16 +28223,16 @@
       </c>
       <c r="B1390" t="inlineStr">
         <is>
-          <t>CENTRO OESTE</t>
+          <t>NORDESTE</t>
         </is>
       </c>
       <c r="C1390" t="inlineStr">
         <is>
-          <t>SUDESTE</t>
+          <t>NORTE</t>
         </is>
       </c>
       <c r="D1390" t="n">
-        <v>116615.471</v>
+        <v>1963.574</v>
       </c>
     </row>
     <row r="1391">
@@ -28243,16 +28243,16 @@
       </c>
       <c r="B1391" t="inlineStr">
         <is>
-          <t>SUDESTE</t>
+          <t>NORTE</t>
         </is>
       </c>
       <c r="C1391" t="inlineStr">
         <is>
-          <t>SUDESTE</t>
+          <t>NORTE</t>
         </is>
       </c>
       <c r="D1391" t="n">
-        <v>41444.319</v>
+        <v>21470.701</v>
       </c>
     </row>
     <row r="1392">
@@ -28263,7 +28263,7 @@
       </c>
       <c r="B1392" t="inlineStr">
         <is>
-          <t>SUL</t>
+          <t>CENTRO OESTE</t>
         </is>
       </c>
       <c r="C1392" t="inlineStr">
@@ -28272,7 +28272,7 @@
         </is>
       </c>
       <c r="D1392" t="n">
-        <v>139830.139</v>
+        <v>120835.309</v>
       </c>
     </row>
     <row r="1393">
@@ -28283,16 +28283,16 @@
       </c>
       <c r="B1393" t="inlineStr">
         <is>
-          <t>CENTRO OESTE</t>
+          <t>SUDESTE</t>
         </is>
       </c>
       <c r="C1393" t="inlineStr">
         <is>
-          <t>SUL</t>
+          <t>SUDESTE</t>
         </is>
       </c>
       <c r="D1393" t="n">
-        <v>1081.944</v>
+        <v>44361.688</v>
       </c>
     </row>
     <row r="1394">
@@ -28303,16 +28303,16 @@
       </c>
       <c r="B1394" t="inlineStr">
         <is>
-          <t>SUDESTE</t>
+          <t>SUL</t>
         </is>
       </c>
       <c r="C1394" t="inlineStr">
         <is>
-          <t>SUL</t>
+          <t>SUDESTE</t>
         </is>
       </c>
       <c r="D1394" t="n">
-        <v>120</v>
+        <v>139946.691</v>
       </c>
     </row>
     <row r="1395">
@@ -28323,7 +28323,7 @@
       </c>
       <c r="B1395" t="inlineStr">
         <is>
-          <t>SUL</t>
+          <t>CENTRO OESTE</t>
         </is>
       </c>
       <c r="C1395" t="inlineStr">
@@ -28332,7 +28332,3247 @@
         </is>
       </c>
       <c r="D1395" t="n">
-        <v>139622.64</v>
+        <v>1172.448</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>01/05/2024</t>
+        </is>
+      </c>
+      <c r="B1396" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1396" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1396" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>01/05/2024</t>
+        </is>
+      </c>
+      <c r="B1397" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1397" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1397" t="n">
+        <v>139654.802</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B1398" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1398" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="D1398" t="n">
+        <v>107588.304</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B1399" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1399" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="D1399" t="n">
+        <v>64.643</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B1400" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1400" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="D1400" t="n">
+        <v>1054.339</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1401" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADA</t>
+        </is>
+      </c>
+      <c r="D1401" t="n">
+        <v>4.942</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B1402" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1402" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADA</t>
+        </is>
+      </c>
+      <c r="D1402" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B1403" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1403" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADA</t>
+        </is>
+      </c>
+      <c r="D1403" t="n">
+        <v>4.887</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B1404" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1404" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1404" t="n">
+        <v>36563.629</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B1405" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1405" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1405" t="n">
+        <v>57563.653</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B1406" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="C1406" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1406" t="n">
+        <v>15571.963</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B1407" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1407" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1407" t="n">
+        <v>2878.361</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B1408" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1408" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="D1408" t="n">
+        <v>44617.444</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B1409" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1409" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="D1409" t="n">
+        <v>2015.16</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B1410" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="C1410" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="D1410" t="n">
+        <v>22411.821</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B1411" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1411" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1411" t="n">
+        <v>119849.38</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B1412" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1412" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1412" t="n">
+        <v>513.2</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B1413" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1413" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1413" t="n">
+        <v>42523.401</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B1414" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1414" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1414" t="n">
+        <v>131977.858</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B1415" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1415" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1415" t="n">
+        <v>1961.108</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B1416" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1416" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1416" t="n">
+        <v>339.723</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B1417" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1417" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1417" t="n">
+        <v>170631.131</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B1418" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1418" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="D1418" t="n">
+        <v>123386.917</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B1419" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1419" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="D1419" t="n">
+        <v>80.91</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B1420" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1420" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="D1420" t="n">
+        <v>984.5069999999999</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B1421" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1421" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADA</t>
+        </is>
+      </c>
+      <c r="D1421" t="n">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B1422" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1422" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADA</t>
+        </is>
+      </c>
+      <c r="D1422" t="n">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B1423" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1423" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADA</t>
+        </is>
+      </c>
+      <c r="D1423" t="n">
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B1424" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1424" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1424" t="n">
+        <v>37929.961</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B1425" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1425" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1425" t="n">
+        <v>71296.31</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B1426" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="C1426" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1426" t="n">
+        <v>12524.131</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B1427" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1427" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1427" t="n">
+        <v>4358.941</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B1428" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1428" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="D1428" t="n">
+        <v>52989.315</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B1429" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1429" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="D1429" t="n">
+        <v>734.9829999999999</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B1430" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="C1430" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="D1430" t="n">
+        <v>26434.134</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B1431" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1431" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1431" t="n">
+        <v>138762.36</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B1432" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1432" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1432" t="n">
+        <v>42.988</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B1433" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1433" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1433" t="n">
+        <v>48270.449</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B1434" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1434" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1434" t="n">
+        <v>141277.418</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B1435" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1435" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1435" t="n">
+        <v>4967.768</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B1436" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1436" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1436" t="n">
+        <v>232.8</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B1437" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1437" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1437" t="n">
+        <v>179507.392</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B1438" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1438" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="D1438" t="n">
+        <v>114619.97</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B1439" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1439" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="D1439" t="n">
+        <v>1637.88</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B1440" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1440" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADA</t>
+        </is>
+      </c>
+      <c r="D1440" t="n">
+        <v>0.047</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B1441" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1441" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADA</t>
+        </is>
+      </c>
+      <c r="D1441" t="n">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B1442" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1442" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADA</t>
+        </is>
+      </c>
+      <c r="D1442" t="n">
+        <v>1.983</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B1443" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1443" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1443" t="n">
+        <v>34926.957</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B1444" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1444" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1444" t="n">
+        <v>80075.67200000001</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B1445" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="C1445" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1445" t="n">
+        <v>10859.363</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B1446" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1446" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1446" t="n">
+        <v>4278.174</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B1447" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1447" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1447" t="n">
+        <v>324.878</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B1448" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1448" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="D1448" t="n">
+        <v>55119.636</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B1449" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1449" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="D1449" t="n">
+        <v>4092.415</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B1450" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="C1450" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="D1450" t="n">
+        <v>27328.856</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B1451" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1451" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1451" t="n">
+        <v>125213.478</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1452" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1452" t="n">
+        <v>45.739</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B1453" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1453" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1453" t="n">
+        <v>45598.563</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B1454" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1454" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1454" t="n">
+        <v>148941.029</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B1455" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1455" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1455" t="n">
+        <v>3055.502</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B1456" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1456" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1456" t="n">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B1457" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1457" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1457" t="n">
+        <v>187652.029</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1458" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1458" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="D1458" t="n">
+        <v>116278.436</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1459" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1459" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="D1459" t="n">
+        <v>1444.138</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1460" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1460" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADA</t>
+        </is>
+      </c>
+      <c r="D1460" t="n">
+        <v>0.053</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1461" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1461" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADA</t>
+        </is>
+      </c>
+      <c r="D1461" t="n">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1462" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1462" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADA</t>
+        </is>
+      </c>
+      <c r="D1462" t="n">
+        <v>6.146</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1463" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1463" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1463" t="n">
+        <v>47603.237</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1464" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1464" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1464" t="n">
+        <v>70891.724</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1465" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="C1465" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1465" t="n">
+        <v>7932.167</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1466" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1466" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1466" t="n">
+        <v>5253.282</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1467" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1467" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1467" t="n">
+        <v>140.963</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1468" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1468" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="D1468" t="n">
+        <v>42684.883</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1469" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1469" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="D1469" t="n">
+        <v>947.692</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1470" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="C1470" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="D1470" t="n">
+        <v>28171.377</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1471" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1471" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1471" t="n">
+        <v>104526.963</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1472" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1472" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1472" t="n">
+        <v>50.015</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1473" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1473" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1473" t="n">
+        <v>49222.825</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1474" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1474" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1474" t="n">
+        <v>141871.533</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1475" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1475" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1475" t="n">
+        <v>931.653</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1476" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1476" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1476" t="n">
+        <v>633.667</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1477" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1477" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1477" t="n">
+        <v>172981.974</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1478" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1478" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="D1478" t="n">
+        <v>130115.036</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1479" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1479" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="D1479" t="n">
+        <v>1384.315</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1480" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1480" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="D1480" t="n">
+        <v>2279.029</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1481" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1481" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADA</t>
+        </is>
+      </c>
+      <c r="D1481" t="n">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1482" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1482" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADA</t>
+        </is>
+      </c>
+      <c r="D1482" t="n">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1483" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1483" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADA</t>
+        </is>
+      </c>
+      <c r="D1483" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1484" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1484" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1484" t="n">
+        <v>46674.308</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1485" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1485" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1485" t="n">
+        <v>80146.838</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1486" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="C1486" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1486" t="n">
+        <v>4611.924</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1487" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1487" t="n">
+        <v>3747.504</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1488" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="D1488" t="n">
+        <v>46025.816</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1489" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1489" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="D1489" t="n">
+        <v>1963.099</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1490" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="C1490" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="D1490" t="n">
+        <v>31836.984</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1491" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1491" t="n">
+        <v>126635.257</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1492" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1492" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1492" t="n">
+        <v>53011.237</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1493" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1493" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1493" t="n">
+        <v>159912.084</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1494" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1494" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1494" t="n">
+        <v>1531.022</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1495" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1495" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1495" t="n">
+        <v>757.8200000000001</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1496" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1496" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1496" t="n">
+        <v>192515.178</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B1497" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1497" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="D1497" t="n">
+        <v>112019.88</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B1498" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1498" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="D1498" t="n">
+        <v>450.072</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B1499" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1499" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="D1499" t="n">
+        <v>1557.221</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B1500" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1500" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADA</t>
+        </is>
+      </c>
+      <c r="D1500" t="n">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B1501" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1501" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADA</t>
+        </is>
+      </c>
+      <c r="D1501" t="n">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B1502" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1502" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADA</t>
+        </is>
+      </c>
+      <c r="D1502" t="n">
+        <v>4.962</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B1503" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1503" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADA</t>
+        </is>
+      </c>
+      <c r="D1503" t="n">
+        <v>5.005</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B1504" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1504" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1504" t="n">
+        <v>53118.755</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B1505" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1505" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1505" t="n">
+        <v>68752.86</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B1506" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="C1506" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1506" t="n">
+        <v>3562.751</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B1507" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1507" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1507" t="n">
+        <v>4678.997</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B1508" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1508" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="D1508" t="n">
+        <v>51746.373</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B1509" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1509" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="D1509" t="n">
+        <v>280.177</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="C1510" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="D1510" t="n">
+        <v>24456.397</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1511" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1511" t="n">
+        <v>82485.512</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B1512" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1512" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1512" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B1513" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1513" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1513" t="n">
+        <v>51935.776</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1514" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1514" t="n">
+        <v>141386.665</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B1515" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1515" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1515" t="n">
+        <v>672.569</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B1516" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1516" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1516" t="n">
+        <v>509.941</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B1517" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1517" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1517" t="n">
+        <v>180981.787</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B1518" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1518" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="D1518" t="n">
+        <v>90986.30499999999</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B1519" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="C1519" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="D1519" t="n">
+        <v>57.069</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B1520" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1520" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="D1520" t="n">
+        <v>14.846</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B1521" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1521" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="D1521" t="n">
+        <v>1395.043</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B1522" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1522" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADA</t>
+        </is>
+      </c>
+      <c r="D1522" t="n">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B1523" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1523" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADA</t>
+        </is>
+      </c>
+      <c r="D1523" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1524" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADA</t>
+        </is>
+      </c>
+      <c r="D1524" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1525" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1525" t="n">
+        <v>40572.847</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1526" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1526" t="n">
+        <v>60915.592</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B1527" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="C1527" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1527" t="n">
+        <v>2761.072</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B1528" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1528" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1528" t="n">
+        <v>4289.073</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B1529" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1529" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="D1529" t="n">
+        <v>42946.026</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1530" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="D1530" t="n">
+        <v>669.049</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B1531" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="C1531" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="D1531" t="n">
+        <v>17953.591</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B1532" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1532" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1532" t="n">
+        <v>73057.55899999999</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B1533" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1533" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1533" t="n">
+        <v>46444.325</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B1534" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1534" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1534" t="n">
+        <v>126102.945</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B1535" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1535" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1535" t="n">
+        <v>314.877</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B1536" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1536" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1536" t="n">
+        <v>44.997</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B1537" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1537" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1537" t="n">
+        <v>146631.323</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B1538" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1538" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="D1538" t="n">
+        <v>94734.034</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B1539" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="C1539" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="D1539" t="n">
+        <v>114.605</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B1540" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1540" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="D1540" t="n">
+        <v>811.128</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B1541" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1541" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADA</t>
+        </is>
+      </c>
+      <c r="D1541" t="n">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B1542" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1542" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADA</t>
+        </is>
+      </c>
+      <c r="D1542" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B1543" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1543" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADA</t>
+        </is>
+      </c>
+      <c r="D1543" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1544" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1544" t="n">
+        <v>42456.101</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1545" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1545" t="n">
+        <v>59207.704</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="C1546" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1546" t="n">
+        <v>8757.816999999999</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1547" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="D1547" t="n">
+        <v>2982.395</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B1548" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1548" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="D1548" t="n">
+        <v>38529.55</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>NORDESTE</t>
+        </is>
+      </c>
+      <c r="C1549" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="D1549" t="n">
+        <v>114.028</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="C1550" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="D1550" t="n">
+        <v>30486.534</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1551" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1551" t="n">
+        <v>67019.29300000001</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="C1552" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1552" t="n">
+        <v>114.046</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1553" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1553" t="n">
+        <v>48148.541</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1554" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="D1554" t="n">
+        <v>117175.335</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE</t>
+        </is>
+      </c>
+      <c r="C1555" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1555" t="n">
+        <v>270.231</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>SUDESTE</t>
+        </is>
+      </c>
+      <c r="C1556" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1556" t="n">
+        <v>44.986</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="C1557" t="inlineStr">
+        <is>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="D1557" t="n">
+        <v>168176.255</v>
       </c>
     </row>
   </sheetData>
